--- a/biology/Zoologie/Eurema_hecabe/Eurema_hecabe.xlsx
+++ b/biology/Zoologie/Eurema_hecabe/Eurema_hecabe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema hecabe est une espèce de lépidoptères de la famille des Pieridae et de la sous-famille des Coliadinae.
 </t>
@@ -513,12 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Imago
-C'est un petit papillon diurne dépassant à peine 4 cm d'envergure. Le mâle et la femelle sont d'une couleur jaune plus ou moins intense sur les deux faces. L'apex des antérieures est largement bordé de marron foncé à noir sur le dessus.
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon diurne dépassant à peine 4 cm d'envergure. Le mâle et la femelle sont d'une couleur jaune plus ou moins intense sur les deux faces. L'apex des antérieures est largement bordé de marron foncé à noir sur le dessus.
 Le dessous peut être uniformément jaune ou taché de marron.
 Il existe un dimorphisme lié à la saison.
-Chenille
-La chenille est verte et cryptique. Elle s'alimente de mimosacées, surtout d'acacias et de légumineuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eurema_hecabe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_hecabe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est verte et cryptique. Elle s'alimente de mimosacées, surtout d'acacias et de légumineuses.
 			œuf
 			chenille
 			chrysalide
@@ -526,41 +578,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eurema_hecabe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eurema_hecabe</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vole toute l'année dans la partie tropicale de l'Australie, le nord du pays. C'est un migrateur vers le sud durant la période chaude, il n'est pas résident dans le sud de l'Australie même si par endroits il peut exister de petites colonies de semi-résidents[1].
-Plantes hôtes
-Ses plantes hôtes sont nombreuses, les Acacia, Sesbania, Cassias (Cassia surrattensis), Caesalpinia, Albizia (Albizia lebbeck), Breynia oblongifolia, Breynia cernua, Breynia nivosa, Hypericum aethiopicum, Phyllanthus tenellus, Leucaena glauca, Sesbania aculeata, Indigofera[2].
-Parasitisme
-Eurema hecabe est parasité par des Wolbachia[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -582,12 +599,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans toute l'Afrique, à Madagascar, dans le sud de l'Asie et jusqu'en Australie[2].
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année dans la partie tropicale de l'Australie, le nord du pays. C'est un migrateur vers le sud durant la période chaude, il n'est pas résident dans le sud de l'Australie même si par endroits il peut exister de petites colonies de semi-résidents.
 </t>
         </is>
       </c>
@@ -613,12 +632,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nom vernaculaire</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce papillon se nomme en anglais Common Grass Yellow.
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont nombreuses, les Acacia, Sesbania, Cassias (Cassia surrattensis), Caesalpinia, Albizia (Albizia lebbeck), Breynia oblongifolia, Breynia cernua, Breynia nivosa, Hypericum aethiopicum, Phyllanthus tenellus, Leucaena glauca, Sesbania aculeata, Indigofera.
 </t>
         </is>
       </c>
@@ -644,17 +669,191 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Parasitisme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema hecabe est parasité par des Wolbachia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurema_hecabe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_hecabe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans toute l'Afrique, à Madagascar, dans le sud de l'Asie et jusqu'en Australie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eurema_hecabe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_hecabe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon se nomme en anglais Common Grass Yellow.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eurema_hecabe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_hecabe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Eurema hecabe (Carl von Linné, 1758)
-Synonymes
-Papilio hecabe (Linnaeus, 1758)
-Terias hecabe (Fruhstorfer, 1910).
-Sous-espèces
-Eurema hecabe hecabe à Célèbes.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema hecabe (Carl von Linné, 1758)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eurema_hecabe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_hecabe</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Papilio hecabe (Linnaeus, 1758)
+Terias hecabe (Fruhstorfer, 1910).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Eurema_hecabe</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_hecabe</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Eurema hecabe hecabe à Célèbes.
 Eurema hecabe albina Huang, 1994
 Eurema hecabe amplexa (Butler, 1887)
 Eurema hecabe biformis (Butler, 1884)
@@ -667,35 +866,37 @@
 Eurema hecabe nivaria Fruhstorfer aux iles Salomon
 Eurema hecabe oeta (Fruhstorfer, 1910) en Papouasie.
 Eurema hecabe phoebus (Butler, 1886) dans le nord de l'Australie.
-Eurema hecabe solifera (Butler, 1875) dans la savane tropicale africaine[2].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Eurema_hecabe</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eurema_hecabe</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Eurema hecabe solifera (Butler, 1875) dans la savane tropicale africaine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Eurema_hecabe</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_hecabe</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
